--- a/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
+++ b/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1110,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
+++ b/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>Mat</t>
   </si>
@@ -83,24 +83,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>CARDENAS</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>VALDEOLIVAR</t>
-  </si>
-  <si>
-    <t>JOSE LUIS</t>
-  </si>
-  <si>
-    <t>GAEL OCTAVIO</t>
   </si>
 </sst>
 </file>
@@ -530,16 +512,16 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>88.89</v>
+        <v>91.67</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -556,19 +538,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>41.38</v>
+        <v>48.28</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -608,10 +590,10 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -634,10 +616,10 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -646,7 +628,7 @@
         <v>76.92</v>
       </c>
       <c r="H7">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -702,16 +684,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>82.14</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -725,16 +710,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>86.11</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -748,16 +736,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>37.93</v>
+      </c>
+      <c r="H4">
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -771,16 +762,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>72.22</v>
+      </c>
+      <c r="H5">
+        <v>6.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -794,16 +788,19 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>54.55</v>
+      </c>
+      <c r="H6">
+        <v>6.7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -817,16 +814,19 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>65.38</v>
+      </c>
+      <c r="H7">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>
@@ -885,16 +885,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>78.56999999999999</v>
+        <v>82.14</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -908,19 +908,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>88.89</v>
+        <v>91.67</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -934,19 +934,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>41.38</v>
+        <v>48.28</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -972,7 +972,7 @@
         <v>91.67</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -986,10 +986,10 @@
         <v>22</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -1012,19 +1012,19 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>76.92</v>
+        <v>80.77</v>
       </c>
       <c r="H7">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1034,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1067,52 +1067,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920430</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920405</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
+++ b/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,84 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MARRON</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>BLASQUEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>SAUL BRANDON</t>
+  </si>
+  <si>
+    <t>ESTEFANI JHOSSELYNE</t>
+  </si>
+  <si>
+    <t>CESAR ADRIAN</t>
+  </si>
+  <si>
+    <t>AMISADAI</t>
+  </si>
+  <si>
+    <t>YAMILETH</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1067,6 +1145,213 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920367</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920395</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920407</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
+++ b/docentes/Ortega Valle Manuel - Estadisticos 2020.xlsx
@@ -85,24 +85,24 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MARRON</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>HUERTA</t>
   </si>
   <si>
-    <t>MARRON</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
@@ -112,46 +112,46 @@
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>BLASQUEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
     <t>SILVESTRE</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>BLASQUEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>SAUL BRANDON</t>
+  </si>
+  <si>
+    <t>ESTEFANI JHOSSELYNE</t>
+  </si>
+  <si>
     <t>VANESSA</t>
   </si>
   <si>
     <t>JOSE GUILLERMO</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>SAUL BRANDON</t>
-  </si>
-  <si>
-    <t>ESTEFANI JHOSSELYNE</t>
   </si>
   <si>
     <t>CESAR ADRIAN</t>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920198</v>
+        <v>18330051920160</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -1159,10 +1159,10 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920199</v>
+        <v>18330051920170</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -1182,10 +1182,10 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920160</v>
+        <v>18330051920177</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920170</v>
+        <v>18330051920367</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -1231,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920177</v>
+        <v>19330051920198</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1251,18 +1251,18 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920367</v>
+        <v>19330051920199</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1274,13 +1274,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1337,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
